--- a/biology/Botanique/Dracunculus_(plante)/Dracunculus_(plante).xlsx
+++ b/biology/Botanique/Dracunculus_(plante)/Dracunculus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dracunculus est un genre de plantes de la famille des Araceae, proche du genre Arum.
@@ -512,7 +524,9 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dracunculus vulgaris Schott - l’arum serpentaire – est une espèce moyennement rustique d’origine méditerranéenne possédant des feuilles digitées. Il présente à la fin du printemps une inflorescence spectaculaire pourpre foncé dégageant une odeur de viande pourrie destinée à attirer, dans son milieu naturel, ses pollinisateurs.
 Dracunculus canariensis Kunth - C'est une espèce endémique de Madère et des îles Canaries de taille plus modeste, a une inflorescence de couleur crème.
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mars 2011)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mars 2011) :
 Dracunculus canariensis Kunth (1841)
 Dracunculus vulgaris Schott (1832)</t>
         </is>
